--- a/subject_list.xlsx
+++ b/subject_list.xlsx
@@ -5,22 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="926" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="160">
   <si>
     <t>Course Code</t>
   </si>
@@ -28,108 +23,78 @@
     <t>Course Title</t>
   </si>
   <si>
-    <t>OR Optimization</t>
-  </si>
-  <si>
-    <t>Cognitive Semantics</t>
-  </si>
-  <si>
-    <t>Pattern Recognition</t>
-  </si>
-  <si>
-    <t>BL799</t>
+    <t>CS112</t>
+  </si>
+  <si>
+    <t>Computer Programming</t>
+  </si>
+  <si>
+    <t>CS221</t>
+  </si>
+  <si>
+    <t>Digital Logic &amp; Design</t>
+  </si>
+  <si>
+    <t>CS222</t>
+  </si>
+  <si>
+    <t>Object Oriented Analysis &amp; Design</t>
+  </si>
+  <si>
+    <t>CS223</t>
+  </si>
+  <si>
+    <t>Data Communication</t>
+  </si>
+  <si>
+    <t>CS321</t>
+  </si>
+  <si>
+    <t>Compiler Design</t>
+  </si>
+  <si>
+    <t>CS322</t>
+  </si>
+  <si>
+    <t>Operating Systems</t>
+  </si>
+  <si>
+    <t>CS323</t>
+  </si>
+  <si>
+    <t>Algorithm Design and Analysis</t>
+  </si>
+  <si>
+    <t>CS553</t>
+  </si>
+  <si>
+    <t>Computational Geometry</t>
+  </si>
+  <si>
+    <t>CS554</t>
+  </si>
+  <si>
+    <t>Principles of Data and System Security</t>
+  </si>
+  <si>
+    <t>CS660</t>
+  </si>
+  <si>
+    <t>Selected Topics in Algorithms</t>
+  </si>
+  <si>
+    <t>CS662</t>
+  </si>
+  <si>
+    <t>Neural Networks and Deep Learning</t>
+  </si>
+  <si>
+    <t>CS799</t>
   </si>
   <si>
     <t>Thesis</t>
   </si>
   <si>
-    <t>BS311</t>
-  </si>
-  <si>
-    <t>Biophysical Techniques</t>
-  </si>
-  <si>
-    <t>BS312</t>
-  </si>
-  <si>
-    <t>Computational Biology</t>
-  </si>
-  <si>
-    <t>BS313</t>
-  </si>
-  <si>
-    <t>Introduction to Cognitive Science</t>
-  </si>
-  <si>
-    <t>CS111</t>
-  </si>
-  <si>
-    <t>Computer Programming</t>
-  </si>
-  <si>
-    <t>CS211</t>
-  </si>
-  <si>
-    <t>Digital Logic &amp; Design</t>
-  </si>
-  <si>
-    <t>CS212</t>
-  </si>
-  <si>
-    <t>Object Oriented Analysis &amp; Design</t>
-  </si>
-  <si>
-    <t>CS311</t>
-  </si>
-  <si>
-    <t>Data Communication</t>
-  </si>
-  <si>
-    <t>CS312</t>
-  </si>
-  <si>
-    <t>Compiler Design</t>
-  </si>
-  <si>
-    <t>CS313</t>
-  </si>
-  <si>
-    <t>Operating Systems</t>
-  </si>
-  <si>
-    <t>CS314</t>
-  </si>
-  <si>
-    <t>Algorithm Design and Analysis</t>
-  </si>
-  <si>
-    <t>CS553</t>
-  </si>
-  <si>
-    <t>Computational Geometry</t>
-  </si>
-  <si>
-    <t>CS554</t>
-  </si>
-  <si>
-    <t>Principles of Data and System Security</t>
-  </si>
-  <si>
-    <t>CS660</t>
-  </si>
-  <si>
-    <t>Selected Topics in Algorithms</t>
-  </si>
-  <si>
-    <t>CS662</t>
-  </si>
-  <si>
-    <t>Neural Networks and Deep Learning</t>
-  </si>
-  <si>
-    <t>CS799</t>
-  </si>
-  <si>
     <t>CY211</t>
   </si>
   <si>
@@ -175,49 +140,49 @@
     <t>CY799</t>
   </si>
   <si>
-    <t>EE111</t>
+    <t>EE121</t>
   </si>
   <si>
     <t>Physics of Semiconductor Devices</t>
   </si>
   <si>
-    <t>EE211</t>
+    <t>EE122</t>
   </si>
   <si>
     <t>Basic Electrical Engineering</t>
   </si>
   <si>
-    <t>EE212</t>
+    <t>EE221</t>
   </si>
   <si>
     <t>Circuit Theory</t>
   </si>
   <si>
-    <t>EE213</t>
+    <t>EE222</t>
   </si>
   <si>
     <t>Signals and Systems</t>
   </si>
   <si>
-    <t>EE311</t>
+    <t>EE321</t>
   </si>
   <si>
     <t>Power Electronics</t>
   </si>
   <si>
-    <t>EE312</t>
+    <t>EE322</t>
   </si>
   <si>
     <t>Microprocessors &amp; Microcontrollers</t>
   </si>
   <si>
-    <t>EE313</t>
+    <t>EE323</t>
   </si>
   <si>
     <t>Communication System</t>
   </si>
   <si>
-    <t>EE314</t>
+    <t>EE324</t>
   </si>
   <si>
     <t>Analog Electronics</t>
@@ -265,19 +230,19 @@
     <t>EE799</t>
   </si>
   <si>
-    <t>HS111</t>
+    <t>HS121</t>
   </si>
   <si>
     <t>English Language and Communication Skills</t>
   </si>
   <si>
-    <t>HS211</t>
+    <t>HS221</t>
   </si>
   <si>
     <t>Economics</t>
   </si>
   <si>
-    <t>HS311</t>
+    <t>HS321</t>
   </si>
   <si>
     <t>Psychology</t>
@@ -355,61 +320,61 @@
     <t>MA799</t>
   </si>
   <si>
-    <t>ME111</t>
+    <t>ME121</t>
   </si>
   <si>
     <t>System Exploration--Drawing</t>
   </si>
   <si>
-    <t>ME112</t>
+    <t>ME122</t>
   </si>
   <si>
     <t>Engineering Materials</t>
   </si>
   <si>
-    <t>ME211</t>
+    <t>ME123</t>
   </si>
   <si>
     <t>Thermodynamics</t>
   </si>
   <si>
-    <t>ME213</t>
+    <t>ME221</t>
   </si>
   <si>
     <t>Mechatronics</t>
   </si>
   <si>
-    <t>ME214</t>
+    <t>ME222</t>
   </si>
   <si>
     <t>Mechanics of Solids</t>
   </si>
   <si>
-    <t>ME311</t>
+    <t>ME223</t>
   </si>
   <si>
     <t>Dynamics of Machines &amp; Mechanism</t>
   </si>
   <si>
-    <t>ME312</t>
+    <t>ME321</t>
   </si>
   <si>
     <t>IC Engines</t>
   </si>
   <si>
-    <t>ME313</t>
+    <t>ME322</t>
   </si>
   <si>
     <t>Machining Science</t>
   </si>
   <si>
-    <t>ME616</t>
+    <t>ME323</t>
   </si>
   <si>
     <t>Mechanical Metallurgy</t>
   </si>
   <si>
-    <t>ME617</t>
+    <t>ME324</t>
   </si>
   <si>
     <t>Computer Aided Manufacturing</t>
@@ -605,17 +570,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -635,10 +596,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -660,723 +621,667 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>31003</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>32209</v>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>60241</v>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/subject_list.xlsx
+++ b/subject_list.xlsx
@@ -5,202 +5,207 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="926" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
-    <t>Course Code</t>
-  </si>
-  <si>
-    <t>Course Title</t>
-  </si>
-  <si>
-    <t>CS112</t>
-  </si>
-  <si>
-    <t>Computer Programming</t>
-  </si>
-  <si>
-    <t>CS221</t>
-  </si>
-  <si>
-    <t>Digital Logic &amp; Design</t>
-  </si>
-  <si>
-    <t>CS222</t>
-  </si>
-  <si>
-    <t>Object Oriented Analysis &amp; Design</t>
-  </si>
-  <si>
-    <t>CS223</t>
-  </si>
-  <si>
-    <t>Data Communication</t>
-  </si>
-  <si>
-    <t>CS321</t>
-  </si>
-  <si>
-    <t>Compiler Design</t>
-  </si>
-  <si>
-    <t>CS322</t>
-  </si>
-  <si>
-    <t>Operating Systems</t>
-  </si>
-  <si>
-    <t>CS323</t>
-  </si>
-  <si>
-    <t>Algorithm Design and Analysis</t>
-  </si>
-  <si>
-    <t>EE121</t>
-  </si>
-  <si>
-    <t>Physics of Semiconductor Devices</t>
-  </si>
-  <si>
-    <t>EE122</t>
-  </si>
-  <si>
-    <t>Basic Electrical Engineering</t>
-  </si>
-  <si>
-    <t>EE221</t>
-  </si>
-  <si>
-    <t>Circuit Theory</t>
-  </si>
-  <si>
-    <t>EE222</t>
-  </si>
-  <si>
-    <t>Signals and Systems</t>
-  </si>
-  <si>
-    <t>EE321</t>
-  </si>
-  <si>
-    <t>Power Electronics</t>
-  </si>
-  <si>
-    <t>EE322</t>
-  </si>
-  <si>
-    <t>Microprocessors &amp; Microcontrollers</t>
-  </si>
-  <si>
-    <t>EE323</t>
-  </si>
-  <si>
-    <t>Communication System</t>
-  </si>
-  <si>
-    <t>EE324</t>
-  </si>
-  <si>
-    <t>Analog Electronics</t>
-  </si>
-  <si>
-    <t>HS121</t>
-  </si>
-  <si>
-    <t>English Language and Communication Skills</t>
-  </si>
-  <si>
-    <t>HS221</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>HS321</t>
-  </si>
-  <si>
-    <t>Psychology</t>
-  </si>
-  <si>
-    <t>MA112</t>
-  </si>
-  <si>
-    <t>Calculus and Linear Algebra</t>
-  </si>
-  <si>
-    <t>MA221</t>
-  </si>
-  <si>
-    <t>Probability and statistics</t>
-  </si>
-  <si>
-    <t>ME121</t>
-  </si>
-  <si>
-    <t>System Exploration--Drawing</t>
-  </si>
-  <si>
-    <t>ME122</t>
-  </si>
-  <si>
-    <t>Engineering Materials</t>
-  </si>
-  <si>
-    <t>ME123</t>
-  </si>
-  <si>
-    <t>Thermodynamics</t>
-  </si>
-  <si>
-    <t>ME221</t>
-  </si>
-  <si>
-    <t>Mechatronics</t>
-  </si>
-  <si>
-    <t>ME222</t>
-  </si>
-  <si>
-    <t>Mechanics of Solids</t>
-  </si>
-  <si>
-    <t>ME223</t>
-  </si>
-  <si>
-    <t>Dynamics of Machines &amp; Mechanism</t>
-  </si>
-  <si>
-    <t>ME321</t>
-  </si>
-  <si>
-    <t>IC Engines</t>
-  </si>
-  <si>
-    <t>ME322</t>
-  </si>
-  <si>
-    <t>Machining Science</t>
-  </si>
-  <si>
-    <t>ME323</t>
-  </si>
-  <si>
-    <t>Mechanical Metallurgy</t>
-  </si>
-  <si>
-    <t>ME324</t>
-  </si>
-  <si>
-    <t>Computer Aided Manufacturing</t>
+    <t xml:space="preserve">Course Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics of Semiconductor Devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English Language and Communication Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculus and Linear Algebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering Materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Logic &amp; Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Oriented Analysis &amp; Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compiler Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm Design and Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Electrical Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuit Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signals and Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microprocessors &amp; Microcontrollers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability and statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Exploration--Drawing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermodynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechatronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanics of Solids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamics of Machines &amp; Mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC Engines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machining Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanical Metallurgy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Aided Manufacturing</t>
   </si>
 </sst>
 </file>
@@ -208,9 +213,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -233,16 +238,139 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -250,8 +378,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,6 +418,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -286,14 +477,90 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -304,18 +571,18 @@
   </sheetPr>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.1071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="26" min="8" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -334,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -342,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -350,7 +617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -358,7 +625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -382,7 +649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -390,7 +657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -398,7 +665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -406,7 +673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -569,7 +836,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
